--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H2">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I2">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J2">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.36748006017594</v>
+        <v>1.51056</v>
       </c>
       <c r="N2">
-        <v>1.36748006017594</v>
+        <v>4.53168</v>
       </c>
       <c r="O2">
-        <v>0.5245742295810261</v>
+        <v>0.4569399709189402</v>
       </c>
       <c r="P2">
-        <v>0.5245742295810261</v>
+        <v>0.4674407903484196</v>
       </c>
       <c r="Q2">
-        <v>6.464037170005604</v>
+        <v>8.954982355199999</v>
       </c>
       <c r="R2">
-        <v>6.464037170005604</v>
+        <v>80.59484119679999</v>
       </c>
       <c r="S2">
-        <v>0.2358366378427377</v>
+        <v>0.2161176011739299</v>
       </c>
       <c r="T2">
-        <v>0.2358366378427377</v>
+        <v>0.2210841439364195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H3">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I3">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J3">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.782613130569806</v>
+        <v>0.9101323333333333</v>
       </c>
       <c r="N3">
-        <v>0.782613130569806</v>
+        <v>2.730397</v>
       </c>
       <c r="O3">
-        <v>0.3002154780785842</v>
+        <v>0.2753123622535487</v>
       </c>
       <c r="P3">
-        <v>0.3002154780785842</v>
+        <v>0.281639244528509</v>
       </c>
       <c r="Q3">
-        <v>3.699388761169069</v>
+        <v>5.395495038857778</v>
       </c>
       <c r="R3">
-        <v>3.699388761169069</v>
+        <v>48.55945534972</v>
       </c>
       <c r="S3">
-        <v>0.1349700480615534</v>
+        <v>0.1302137065928077</v>
       </c>
       <c r="T3">
-        <v>0.1349700480615534</v>
+        <v>0.133206114145652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H4">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I4">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J4">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.322751286186556</v>
+        <v>0.250344</v>
       </c>
       <c r="N4">
-        <v>0.322751286186556</v>
+        <v>0.751032</v>
       </c>
       <c r="O4">
-        <v>0.1238094888753368</v>
+        <v>0.07572832597164705</v>
       </c>
       <c r="P4">
-        <v>0.1238094888753368</v>
+        <v>0.07746861906775286</v>
       </c>
       <c r="Q4">
-        <v>1.525635635453868</v>
+        <v>1.48410265248</v>
       </c>
       <c r="R4">
-        <v>1.525635635453868</v>
+        <v>13.35692387232</v>
       </c>
       <c r="S4">
-        <v>0.05566192912813912</v>
+        <v>0.03581701140523138</v>
       </c>
       <c r="T4">
-        <v>0.05566192912813912</v>
+        <v>0.03664011289165543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H5">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I5">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J5">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.133993570121853</v>
+        <v>0.4119903333333333</v>
       </c>
       <c r="N5">
-        <v>0.133993570121853</v>
+        <v>1.235971</v>
       </c>
       <c r="O5">
-        <v>0.05140080346505292</v>
+        <v>0.1246258678451818</v>
       </c>
       <c r="P5">
-        <v>0.05140080346505292</v>
+        <v>0.1274898627192844</v>
       </c>
       <c r="Q5">
-        <v>0.6333835812552708</v>
+        <v>2.442383066884444</v>
       </c>
       <c r="R5">
-        <v>0.6333835812552708</v>
+        <v>21.98144760196</v>
       </c>
       <c r="S5">
-        <v>0.02310863170174283</v>
+        <v>0.05894394300580431</v>
       </c>
       <c r="T5">
-        <v>0.02310863170174283</v>
+        <v>0.06029851853291504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.78728536811412</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H6">
-        <v>5.78728536811412</v>
+        <v>17.78476</v>
       </c>
       <c r="I6">
-        <v>0.5504227532658269</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J6">
-        <v>0.5504227532658269</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.36748006017594</v>
+        <v>0.2227905</v>
       </c>
       <c r="N6">
-        <v>1.36748006017594</v>
+        <v>0.445581</v>
       </c>
       <c r="O6">
-        <v>0.5245742295810261</v>
+        <v>0.06739347301068223</v>
       </c>
       <c r="P6">
-        <v>0.5245742295810261</v>
+        <v>0.04596148333603414</v>
       </c>
       <c r="Q6">
-        <v>7.913997343444034</v>
+        <v>1.32075852426</v>
       </c>
       <c r="R6">
-        <v>7.913997343444034</v>
+        <v>7.92455114556</v>
       </c>
       <c r="S6">
-        <v>0.2887375917382883</v>
+        <v>0.03187489965598218</v>
       </c>
       <c r="T6">
-        <v>0.2887375917382883</v>
+        <v>0.02173827232711352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.78728536811412</v>
+        <v>6.605922</v>
       </c>
       <c r="H7">
-        <v>5.78728536811412</v>
+        <v>19.817766</v>
       </c>
       <c r="I7">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="J7">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.782613130569806</v>
+        <v>1.51056</v>
       </c>
       <c r="N7">
-        <v>0.782613130569806</v>
+        <v>4.53168</v>
       </c>
       <c r="O7">
-        <v>0.3002154780785842</v>
+        <v>0.4569399709189402</v>
       </c>
       <c r="P7">
-        <v>0.3002154780785842</v>
+        <v>0.4674407903484196</v>
       </c>
       <c r="Q7">
-        <v>4.529205519440624</v>
+        <v>9.97864153632</v>
       </c>
       <c r="R7">
-        <v>4.529205519440624</v>
+        <v>89.80777382687999</v>
       </c>
       <c r="S7">
-        <v>0.1652454300170308</v>
+        <v>0.2408223697450103</v>
       </c>
       <c r="T7">
-        <v>0.1652454300170308</v>
+        <v>0.246356646412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.78728536811412</v>
+        <v>6.605922</v>
       </c>
       <c r="H8">
-        <v>5.78728536811412</v>
+        <v>19.817766</v>
       </c>
       <c r="I8">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="J8">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.322751286186556</v>
+        <v>0.9101323333333333</v>
       </c>
       <c r="N8">
-        <v>0.322751286186556</v>
+        <v>2.730397</v>
       </c>
       <c r="O8">
-        <v>0.1238094888753368</v>
+        <v>0.2753123622535487</v>
       </c>
       <c r="P8">
-        <v>0.1238094888753368</v>
+        <v>0.281639244528509</v>
       </c>
       <c r="Q8">
-        <v>1.867853796087469</v>
+        <v>6.012263203678</v>
       </c>
       <c r="R8">
-        <v>1.867853796087469</v>
+        <v>54.11036883310199</v>
       </c>
       <c r="S8">
-        <v>0.06814755974719762</v>
+        <v>0.145098655660741</v>
       </c>
       <c r="T8">
-        <v>0.06814755974719762</v>
+        <v>0.148433130382857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +965,179 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.605922</v>
+      </c>
+      <c r="H9">
+        <v>19.817766</v>
+      </c>
+      <c r="I9">
+        <v>0.5270328381662445</v>
+      </c>
+      <c r="J9">
+        <v>0.5270328381662445</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.250344</v>
+      </c>
+      <c r="N9">
+        <v>0.751032</v>
+      </c>
+      <c r="O9">
+        <v>0.07572832597164705</v>
+      </c>
+      <c r="P9">
+        <v>0.07746861906775286</v>
+      </c>
+      <c r="Q9">
+        <v>1.653752937168</v>
+      </c>
+      <c r="R9">
+        <v>14.883776434512</v>
+      </c>
+      <c r="S9">
+        <v>0.03991131456641567</v>
+      </c>
+      <c r="T9">
+        <v>0.04082850617609744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.605922</v>
+      </c>
+      <c r="H10">
+        <v>19.817766</v>
+      </c>
+      <c r="I10">
+        <v>0.5270328381662445</v>
+      </c>
+      <c r="J10">
+        <v>0.5270328381662445</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4119903333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.235971</v>
+      </c>
+      <c r="O10">
+        <v>0.1246258678451818</v>
+      </c>
+      <c r="P10">
+        <v>0.1274898627192844</v>
+      </c>
+      <c r="Q10">
+        <v>2.721576006753999</v>
+      </c>
+      <c r="R10">
+        <v>24.494184060786</v>
+      </c>
+      <c r="S10">
+        <v>0.06568192483937746</v>
+      </c>
+      <c r="T10">
+        <v>0.06719134418636932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.78728536811412</v>
-      </c>
-      <c r="H9">
-        <v>5.78728536811412</v>
-      </c>
-      <c r="I9">
-        <v>0.5504227532658269</v>
-      </c>
-      <c r="J9">
-        <v>0.5504227532658269</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.133993570121853</v>
-      </c>
-      <c r="N9">
-        <v>0.133993570121853</v>
-      </c>
-      <c r="O9">
-        <v>0.05140080346505292</v>
-      </c>
-      <c r="P9">
-        <v>0.05140080346505292</v>
-      </c>
-      <c r="Q9">
-        <v>0.7754590277875733</v>
-      </c>
-      <c r="R9">
-        <v>0.7754590277875733</v>
-      </c>
-      <c r="S9">
-        <v>0.02829217176331008</v>
-      </c>
-      <c r="T9">
-        <v>0.02829217176331008</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.605922</v>
+      </c>
+      <c r="H11">
+        <v>19.817766</v>
+      </c>
+      <c r="I11">
+        <v>0.5270328381662445</v>
+      </c>
+      <c r="J11">
+        <v>0.5270328381662445</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2227905</v>
+      </c>
+      <c r="N11">
+        <v>0.445581</v>
+      </c>
+      <c r="O11">
+        <v>0.06739347301068223</v>
+      </c>
+      <c r="P11">
+        <v>0.04596148333603414</v>
+      </c>
+      <c r="Q11">
+        <v>1.471736665341</v>
+      </c>
+      <c r="R11">
+        <v>8.830419992046</v>
+      </c>
+      <c r="S11">
+        <v>0.03551857335470005</v>
+      </c>
+      <c r="T11">
+        <v>0.02422321100892062</v>
       </c>
     </row>
   </sheetData>
